--- a/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify-newtopup.xlsx
+++ b/Finflux Automation Excels/Client/5007-DISB01JAN2015-EARLYREPAY-DISBTOPUP-UndoTopUP-ChangeLoanAccount-DISBTOPUP-Verify-newtopup.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +205,21 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -244,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -264,6 +279,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -549,7 +577,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +733,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,8 +1099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,7 +1144,7 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>350</v>
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>29</v>
@@ -1150,7 +1178,7 @@
     </row>
     <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>349</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -1184,7 +1212,7 @@
     </row>
     <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>346</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
@@ -1428,123 +1456,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="10"/>
+    <col min="3" max="3" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.140625" style="10"/>
+    <col min="7" max="7" width="20.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="11">
         <v>57</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="12">
         <v>42064</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>58</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="12">
         <v>42064</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="13" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>58</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="12">
         <v>42064</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="8"/>
+      <c r="I4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
